--- a/biology/Zoologie/Chevrotain/Chevrotain.xlsx
+++ b/biology/Zoologie/Chevrotain/Chevrotain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les termes « chevrotain » ou « chevrotins » sont des noms vernaculaires ambigus en français, pouvant désigner plusieurs espèces différentes d'artiodactyles :
-le Chevrotain aquatique, Chevrotain africain ou Biche-cochon (Hyemoschus aquaticus)[1],[2] ;
-le Chevrotain indien ou Chevrotain tacheté (Moschiola meminna)[1],[3] ;
-le Chevrotain porte-musc, Porte-musc ou Cerf musqué (Moschus moschiferus)[1],[3] ;
-les Chevrotains d'Asie (genre Tragulus)[1] ;
-le Petit chevrotain malais, Kanchil ou Cerf souris (T. javanicus)[3] ;
-le Grand chevrotain malais ou Napu (T. napu)[3].
+le Chevrotain aquatique, Chevrotain africain ou Biche-cochon (Hyemoschus aquaticus), ;
+le Chevrotain indien ou Chevrotain tacheté (Moschiola meminna), ;
+le Chevrotain porte-musc, Porte-musc ou Cerf musqué (Moschus moschiferus), ;
+les Chevrotains d'Asie (genre Tragulus) ;
+le Petit chevrotain malais, Kanchil ou Cerf souris (T. javanicus) ;
+le Grand chevrotain malais ou Napu (T. napu).
 			Chevrotain aquatique (Hyemoschus aquaticus).
 			Chevrotain indien (Moschiola meminna).
 			Chevrotain porte-musc (Moschus moschiferus).
